--- a/xlsx/华盛顿特区_intext.xlsx
+++ b/xlsx/华盛顿特区_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="958">
   <si>
     <t>华盛顿特区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
@@ -29,13 +29,13 @@
     <t>华盛顿</t>
   </si>
   <si>
-    <t>政策_政策_美國_华盛顿特区</t>
+    <t>政策_政策_美国_华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Residence_Act</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%B2%B8</t>
   </si>
   <si>
-    <t>美國東岸</t>
+    <t>美国东岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -317,13 +317,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>喬治·華盛頓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>國際貨幣基金</t>
+    <t>国际货币基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E7%BB%84%E7%BB%87</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>博物館</t>
+    <t>博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%B9%9F</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>1812年戰爭</t>
+    <t>1812年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>亞歷山大·漢密爾頓</t>
+    <t>亚历山大·汉密尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
@@ -485,9 +482,6 @@
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>1812年战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E4%BC%A6%E5%A4%9A</t>
   </si>
   <si>
@@ -509,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B7%E4%BC%AF%C2%B7%E7%88%BE%E5%88%A9</t>
   </si>
   <si>
-    <t>具伯·爾利</t>
+    <t>具伯·尔利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>美利堅邦聯</t>
+    <t>美利坚邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A9%AC%E5%88%A9</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%85%8B%E7%B6%AD%E7%88%BE_(%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅克維爾 (馬里蘭州)</t>
+    <t>罗克维尔 (马里兰州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%87%8C</t>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>行政長官</t>
+    <t>行政长官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%AC%E6%81%A4%E9%87%91%E9%80%B2%E8%BB%8D%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>酬恤金進軍事件</t>
+    <t>酬恤金进军事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E4%BD%9B</t>
@@ -593,19 +587,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>華盛頓地鐵</t>
+    <t>华盛顿地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E5%BC%97%E7%89%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>卡爾弗特縣</t>
+    <t>卡尔弗特县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%E7%B8%A3</t>
   </si>
   <si>
-    <t>查爾斯縣</t>
+    <t>查尔斯县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%E5%8E%BF_(%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E)</t>
@@ -623,73 +617,73 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>阿靈頓縣 (維吉尼亞州)</t>
+    <t>阿灵顿县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克拉克縣 (維吉尼亞州)</t>
+    <t>克拉克县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E6%B3%95%E5%85%8B%E6%96%AF_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費爾法克斯 (維吉尼亞州)</t>
+    <t>费尔法克斯 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E6%B3%95%E5%85%8B%E6%96%AF%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費爾法克斯縣 (維吉尼亞州)</t>
+    <t>费尔法克斯县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%88%BE%E6%96%AF%E5%BE%B9%E5%A5%87_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>福爾斯徹奇 (維吉尼亞州)</t>
+    <t>福尔斯彻奇 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%9F%BA%E7%88%BE%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>福基爾縣 (維吉尼亞州)</t>
+    <t>福基尔县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E7%99%BB%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>勞登縣 (維吉尼亞州)</t>
+    <t>劳登县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%8D%E8%96%A9%E6%96%AF_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬納薩斯 (維吉尼亞州)</t>
+    <t>马纳萨斯 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%8D%E8%96%A9%E6%96%AF%E5%B8%95%E5%85%8B_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬納薩斯帕克 (維吉尼亞州)</t>
+    <t>马纳萨斯帕克 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E7%8E%8B%E5%AD%90%E7%B8%A3</t>
   </si>
   <si>
-    <t>威廉王子縣</t>
+    <t>威廉王子县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B3%A2%E7%89%B9%E7%91%9F%E7%88%BE%E9%9F%8B%E5%B0%BC%E4%BA%9E%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯波特瑟爾韋尼亞縣 (維吉尼亞州)</t>
+    <t>斯波特瑟尔韦尼亚县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯塔福德縣 (維吉尼亞州)</t>
+    <t>斯塔福德县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%E6%96%AF%E5%A0%A1_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -701,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%80%AB%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃倫縣 (維吉尼亞州)</t>
+    <t>沃伦县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E7%B8%A3_(%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑佛遜縣 (西維吉尼亞州)</t>
+    <t>杰佛逊县 (西维吉尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Washington_metropolitan_area</t>
@@ -719,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AF%E5%BA%A6</t>
   </si>
   <si>
-    <t>緯度</t>
+    <t>纬度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%BA%A6</t>
   </si>
   <si>
-    <t>經度</t>
+    <t>经度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%85%AC%E9%87%8C</t>
@@ -773,9 +767,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>美國國會大廈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
   </si>
   <si>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>熱島效應</t>
+    <t>热岛效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%9C%BA</t>
@@ -809,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%85%A7%E6%99%82%E6%95%B8</t>
   </si>
   <si>
-    <t>日照時數</t>
+    <t>日照时数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -821,9 +812,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BB%E7%90%86</t>
   </si>
   <si>
@@ -845,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>參政權</t>
+    <t>参政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -869,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>美國選舉人團</t>
+    <t>美国选举人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -881,9 +869,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
@@ -923,79 +908,79 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
@@ -1025,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -1043,19 +1028,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4_(%E4%BA%BA%E9%A1%9E%E7%A4%BE%E6%9C%83)</t>
   </si>
   <si>
-    <t>族群 (人類社會)</t>
+    <t>族群 (人类社会)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -1079,9 +1064,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
   </si>
   <si>
-    <t>西班牙语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
   </si>
   <si>
@@ -1145,19 +1127,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%AF%86%E6%A3%AE%E5%B0%BC%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>史密森尼博物館</t>
+    <t>史密森尼博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%89%A9%E9%A6%86</t>
   </si>
   <si>
-    <t>博物馆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E7%91%9E%E7%88%BE%E8%97%9D%E5%BB%8A</t>
   </si>
   <si>
-    <t>弗瑞爾藝廊</t>
+    <t>弗瑞尔艺廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%9F%C2%B7M%C2%B7%E8%90%A8%E5%85%8B%E5%8B%92%E7%BE%8E%E6%9C%AF%E9%A6%86</t>
@@ -1181,13 +1160,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%82%96%E5%83%8F%E7%95%AB%E5%BB%8A</t>
   </si>
   <si>
-    <t>美國國家肖像畫廊</t>
+    <t>美国国家肖像画廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E5%92%8C%E5%A4%AA%E7%A9%BA%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>國家航空和太空博物館</t>
+    <t>国家航空和太空博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hirshhorn_Museum</t>
@@ -1223,19 +1202,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國藝術博物館</t>
+    <t>美国艺术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立美國郵政博物館</t>
+    <t>国立美国邮政博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%AF%86%E6%A3%AE%E5%9C%8B%E7%AB%8B%E5%8B%95%E7%89%A9%E5%9C%92</t>
   </si>
   <si>
-    <t>史密森國立動物園</t>
+    <t>史密森国立动物园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%86%8A%E7%8C%AB</t>
@@ -1247,13 +1226,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%9C%92</t>
   </si>
   <si>
-    <t>動物園</t>
+    <t>动物园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%95%AB%E5%BB%8A</t>
   </si>
   <si>
-    <t>美國國家畫廊</t>
+    <t>美国国家画廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%A6%E4%BC%9A</t>
@@ -1265,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>新聞博物館</t>
+    <t>新闻博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%A7%E5%B1%A0%E6%9D%80%E7%BA%AA%E5%BF%B5%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -1283,13 +1262,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>菲利普美術館</t>
+    <t>菲利普美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A6%E5%B7%B4%E9%A0%93%E6%A9%A1%E6%A8%B9%E5%9C%92</t>
   </si>
   <si>
-    <t>敦巴頓橡樹園</t>
+    <t>敦巴顿橡树园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E5%89%A7%E9%99%A2</t>
@@ -1331,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治·華盛頓大學</t>
+    <t>乔治·华盛顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%A4%A7%E5%AD%A6</t>
@@ -1355,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國天主教大學</t>
+    <t>美国天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%8D%8E%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -1367,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AB%8B%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>高立德大學</t>
+    <t>高立德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94%E8%89%BA%E6%9C%AF</t>
@@ -1415,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8B%E5%85%8B%E6%90%96%E6%BB%BE</t>
   </si>
   <si>
-    <t>朋克搖滾</t>
+    <t>朋克摇滚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -1469,31 +1448,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視網</t>
+    <t>电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>全國廣播公司</t>
+    <t>全国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福克斯廣播公司</t>
+    <t>福克斯广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國廣播公司</t>
+    <t>美国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>哥倫比亞廣播公司</t>
+    <t>哥伦比亚广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MyNetworkTV</t>
@@ -1511,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>CW電視台</t>
+    <t>CW电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-SPAN</t>
@@ -1523,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/BET%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>BET電視網</t>
+    <t>BET电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E7%B4%A2%E9%A2%91%E9%81%93</t>
@@ -1541,13 +1520,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國廣播公司</t>
+    <t>英国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>加拿大廣播公司</t>
+    <t>加拿大广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B2%9B%E7%94%B5%E8%A7%86%E5%8F%B0</t>
@@ -1559,13 +1538,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9D%9C%E5%8B%92%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>華盛頓杜勒斯國際機場</t>
+    <t>华盛顿杜勒斯国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>機場</t>
+    <t>机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%9A%84%E6%91%A9/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%91%9F%E5%8F%A4%E5%BE%B7%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1577,13 +1556,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E8%88%AA%E7%A9%BA</t>
@@ -1595,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
@@ -1607,13 +1583,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>達美航空</t>
+    <t>达美航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/95%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -1637,85 +1613,85 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>地鐵</t>
+    <t>地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>紐約地鐵</t>
+    <t>纽约地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9%E7%B8%A3_(%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙哥馬利縣 (馬里蘭州)</t>
+    <t>蒙哥马利县 (马里兰州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E6%B3%95%E5%85%8B%E6%96%AF%E9%83%A1_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費爾法克斯郡 (維吉尼亞州)</t>
+    <t>费尔法克斯郡 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%8D%93_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>亞歷山卓 (維吉尼亞州)</t>
+    <t>亚历山卓 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%8D%B7%E9%81%8B%E7%B4%85%E7%B7%9A</t>
   </si>
   <si>
-    <t>華盛頓捷運紅線</t>
+    <t>华盛顿捷运红线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%8D%B7%E9%81%8B%E6%A9%98%E7%B7%9A</t>
   </si>
   <si>
-    <t>華盛頓捷運橘線</t>
+    <t>华盛顿捷运橘线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%8D%B7%E9%81%8B%E8%97%8D%E7%B7%9A</t>
   </si>
   <si>
-    <t>華盛頓捷運藍線</t>
+    <t>华盛顿捷运蓝线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%8D%B7%E9%81%8B%E7%B6%A0%E7%B7%9A</t>
   </si>
   <si>
-    <t>華盛頓捷運綠線</t>
+    <t>华盛顿捷运绿线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%8D%B7%E9%81%8B%E9%BB%83%E7%B7%9A</t>
   </si>
   <si>
-    <t>華盛頓捷運黃線</t>
+    <t>华盛顿捷运黄线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>公共汽車</t>
+    <t>公共汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL</t>
@@ -1727,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B4%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>華盛頓紅人</t>
+    <t>华盛顿红人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -1745,13 +1721,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%9C%8B%E6%B0%91</t>
   </si>
   <si>
-    <t>華盛頓國民</t>
+    <t>华盛顿国民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -1769,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E6%A2%85%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治梅森大學</t>
+    <t>乔治梅森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WNBA</t>
@@ -1781,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%A5%9E%E7%A7%98</t>
   </si>
   <si>
-    <t>華盛頓神秘</t>
+    <t>华盛顿神秘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHL</t>
@@ -1793,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%A6%96%E9%83%BD</t>
   </si>
   <si>
-    <t>華盛頓首都</t>
+    <t>华盛顿首都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MLS</t>
@@ -1805,13 +1781,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E8%81%AF%E9%9A%8A</t>
   </si>
   <si>
-    <t>華盛頓聯隊</t>
+    <t>华盛顿联队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>國家廣場</t>
+    <t>国家广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E6%96%90%E9%80%8A%E7%BA%AA%E5%BF%B5%E5%A0%82</t>
@@ -1913,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E9%9F%B3%E5%BB%9F</t>
   </si>
   <si>
-    <t>觀音廟</t>
+    <t>观音庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
@@ -1925,49 +1901,46 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%A8%82</t>
   </si>
   <si>
-    <t>爵士樂</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E5%AE%B6</t>
   </si>
   <si>
-    <t>音樂家</t>
+    <t>音乐家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%9D%88%E9%A0%93%E5%85%AC%E7%88%B5</t>
   </si>
   <si>
-    <t>艾靈頓公爵</t>
+    <t>艾灵顿公爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E9%A6%99%E6%A2%85</t>
   </si>
   <si>
-    <t>陳香梅</t>
+    <t>陈香梅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>華裔美國人</t>
+    <t>华裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%99%8E%E9%9A%8A</t>
   </si>
   <si>
-    <t>飛虎隊</t>
+    <t>飞虎队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%B4%8D%E5%BE%B7</t>
   </si>
   <si>
-    <t>陳納德</t>
+    <t>陈纳德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E5%A5%BD%E5%9F%8E%E5%B8%82</t>
@@ -1997,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%96%80%E5%B0%94</t>
@@ -2033,7 +2006,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
@@ -2045,7 +2018,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -2105,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%A1%E6%8B%89</t>
@@ -2141,7 +2114,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -2195,25 +2168,22 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B50%E5%A4%A7%E9%83%BD%E5%B8%82</t>
   </si>
   <si>
-    <t>Template talk-美國50大都市</t>
+    <t>Template talk-美国50大都市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%BB%E8%A6%81%E9%83%BD%E5%B8%82%E4%BA%BA%E5%8F%A3%E9%A0%86%E4%BD%8D</t>
   </si>
   <si>
-    <t>美國主要都市人口順位</t>
+    <t>美国主要都市人口顺位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -2225,25 +2195,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>鳳凰城 (亞利桑那州)</t>
+    <t>凤凰城 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
   </si>
   <si>
-    <t>费城</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖安東尼奧 (德克薩斯州)</t>
+    <t>圣安东尼奥 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%BF%AD%E6%88%88_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2255,13 +2222,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>達拉斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E7%BB%B4%E5%B0%94_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -2273,25 +2237,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>奧斯汀</t>
+    <t>奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哥倫布 (俄亥俄州)</t>
+    <t>哥伦布 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E5%A0%A1</t>
@@ -2303,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏洛特 (北卡羅萊那州)</t>
+    <t>夏洛特 (北卡罗莱那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
@@ -2315,19 +2279,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾爾帕索 (德克薩斯州)</t>
+    <t>艾尔帕索 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E4%BB%80%E7%BB%B4%E5%B0%94</t>
@@ -2345,7 +2309,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>路易斯維爾</t>
+    <t>路易斯维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%B0%94%E6%B2%83%E5%9F%BA</t>
@@ -2357,19 +2321,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波特蘭 (奧勒岡州)</t>
+    <t>波特兰 (奥勒冈州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
+    <t>拉斯维加斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>奧克拉荷馬市</t>
+    <t>奥克拉荷马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%A5%8E%E5%9F%BA_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
@@ -2381,55 +2345,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A3%AE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>圖森 (亞利桑那州)</t>
+    <t>图森 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%9B%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>佛雷斯諾</t>
+    <t>佛雷斯诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%81%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長灘 (加利福尼亞州)</t>
+    <t>长滩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>堪薩斯城 (密蘇里州)</t>
+    <t>堪萨斯城 (密苏里州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅薩 (亞利桑那州)</t>
+    <t>梅萨 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E6%B5%B7%E7%81%98</t>
   </si>
   <si>
-    <t>維吉尼亞海灘</t>
+    <t>维吉尼亚海滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B3%89</t>
   </si>
   <si>
-    <t>科羅拉多泉</t>
+    <t>科罗拉多泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%93%88_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -2447,19 +2411,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E8%96%A9</t>
   </si>
   <si>
-    <t>圖爾薩</t>
+    <t>图尔萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2489,7 +2453,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -2513,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -2531,7 +2495,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -2555,7 +2519,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -2591,7 +2555,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -2615,7 +2579,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -2627,7 +2591,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -2639,7 +2603,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -2651,7 +2615,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -2699,7 +2663,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -2717,7 +2681,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -2753,7 +2717,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -2771,19 +2735,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -2801,7 +2765,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -2813,7 +2777,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -2825,7 +2789,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -2837,25 +2801,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -2885,7 +2849,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2903,7 +2867,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3327,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -4774,7 +4738,7 @@
         <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -4800,10 +4764,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4829,10 +4793,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>16</v>
@@ -4858,10 +4822,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -4887,10 +4851,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4916,10 +4880,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4945,10 +4909,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4974,10 +4938,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5003,10 +4967,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5032,10 +4996,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5061,10 +5025,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>9</v>
@@ -5090,10 +5054,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5119,10 +5083,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5148,10 +5112,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
@@ -5177,10 +5141,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5206,10 +5170,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5235,10 +5199,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5264,10 +5228,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5293,10 +5257,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5322,10 +5286,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5351,10 +5315,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -5380,10 +5344,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5409,10 +5373,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5438,10 +5402,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5467,10 +5431,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5496,10 +5460,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -5525,10 +5489,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5554,10 +5518,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>10</v>
@@ -5583,10 +5547,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5612,10 +5576,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5641,10 +5605,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>10</v>
@@ -5670,10 +5634,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -5699,10 +5663,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5728,10 +5692,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5757,10 +5721,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -5786,10 +5750,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>42</v>
@@ -5815,10 +5779,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5844,10 +5808,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>9</v>
@@ -5873,10 +5837,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5902,10 +5866,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5931,10 +5895,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5960,10 +5924,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5989,10 +5953,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6018,10 +5982,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6047,10 +6011,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6076,10 +6040,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6105,10 +6069,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6134,10 +6098,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6163,10 +6127,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6192,10 +6156,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -6221,10 +6185,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6279,10 +6243,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -6308,10 +6272,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6337,10 +6301,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -6366,10 +6330,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6395,10 +6359,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6424,10 +6388,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6453,10 +6417,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6482,10 +6446,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -6511,10 +6475,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6540,10 +6504,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6569,10 +6533,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6598,10 +6562,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6627,10 +6591,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6656,10 +6620,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6685,10 +6649,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6714,10 +6678,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6772,10 +6736,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6801,10 +6765,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6830,10 +6794,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>6</v>
@@ -6859,10 +6823,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6888,10 +6852,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6917,10 +6881,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6946,10 +6910,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6975,10 +6939,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -7004,10 +6968,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7033,10 +6997,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7062,10 +7026,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7091,10 +7055,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7120,10 +7084,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -7149,10 +7113,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>6</v>
@@ -7178,10 +7142,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7207,10 +7171,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7236,10 +7200,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7265,10 +7229,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7294,10 +7258,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>84</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -7323,10 +7287,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7352,10 +7316,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7381,10 +7345,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7410,10 +7374,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7439,10 +7403,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7468,10 +7432,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7497,10 +7461,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7526,10 +7490,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7555,10 +7519,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7584,10 +7548,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7613,10 +7577,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -7642,10 +7606,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -7671,10 +7635,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
@@ -7700,10 +7664,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7729,10 +7693,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7758,10 +7722,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7787,10 +7751,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7816,10 +7780,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7845,10 +7809,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7874,10 +7838,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7903,10 +7867,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7932,10 +7896,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7961,10 +7925,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7990,10 +7954,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8019,10 +7983,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8048,10 +8012,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8077,10 +8041,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8106,10 +8070,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -8135,10 +8099,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>5</v>
@@ -8164,10 +8128,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>5</v>
@@ -8193,10 +8157,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8222,10 +8186,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8251,10 +8215,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -8280,10 +8244,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>6</v>
@@ -8309,10 +8273,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8338,10 +8302,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8367,10 +8331,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8396,10 +8360,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8425,10 +8389,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8454,10 +8418,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8483,10 +8447,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8512,10 +8476,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8541,10 +8505,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8570,10 +8534,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>30</v>
@@ -8599,10 +8563,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8628,10 +8592,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -8657,10 +8621,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8686,10 +8650,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8715,10 +8679,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -8744,10 +8708,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8773,10 +8737,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8802,10 +8766,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8831,10 +8795,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8860,10 +8824,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8889,10 +8853,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>13</v>
@@ -8918,10 +8882,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F195" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8947,10 +8911,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8976,10 +8940,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>119</v>
       </c>
       <c r="G197" t="n">
         <v>18</v>
@@ -9005,10 +8969,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9034,10 +8998,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9063,10 +9027,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9092,10 +9056,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9121,10 +9085,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9150,10 +9114,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9179,10 +9143,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9208,10 +9172,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9237,10 +9201,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9266,10 +9230,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9295,10 +9259,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9324,10 +9288,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9353,10 +9317,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9382,10 +9346,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9411,10 +9375,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9440,10 +9404,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9469,10 +9433,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9498,10 +9462,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9527,10 +9491,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9556,10 +9520,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9585,10 +9549,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9614,10 +9578,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9643,10 +9607,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9672,10 +9636,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9701,10 +9665,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9730,10 +9694,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9759,10 +9723,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9788,10 +9752,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9817,10 +9781,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -9875,10 +9839,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9904,10 +9868,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9933,10 +9897,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9962,10 +9926,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9991,10 +9955,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10020,10 +9984,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10049,10 +10013,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10078,10 +10042,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G235" t="n">
         <v>4</v>
@@ -10107,10 +10071,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10136,10 +10100,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10165,10 +10129,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10194,10 +10158,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10223,10 +10187,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10252,10 +10216,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10281,10 +10245,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10310,10 +10274,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10339,10 +10303,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -10368,10 +10332,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10397,10 +10361,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10426,10 +10390,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10455,10 +10419,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10484,10 +10448,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G249" t="n">
         <v>6</v>
@@ -10513,10 +10477,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10542,10 +10506,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -10571,10 +10535,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10600,10 +10564,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10629,10 +10593,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10658,10 +10622,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10687,10 +10651,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10716,10 +10680,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10745,10 +10709,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10774,10 +10738,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10803,10 +10767,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10832,10 +10796,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10861,10 +10825,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10890,10 +10854,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10919,10 +10883,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10948,10 +10912,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10977,10 +10941,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -11006,10 +10970,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G267" t="n">
         <v>7</v>
@@ -11035,10 +10999,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11064,10 +11028,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>22</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11093,10 +11057,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -11122,10 +11086,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11151,10 +11115,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F272" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11180,10 +11144,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -11209,10 +11173,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11238,10 +11202,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11267,10 +11231,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11296,10 +11260,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G277" t="n">
         <v>4</v>
@@ -11325,10 +11289,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11354,10 +11318,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11383,10 +11347,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F280" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G280" t="n">
         <v>4</v>
@@ -11412,10 +11376,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G281" t="n">
         <v>10</v>
@@ -11441,10 +11405,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11470,10 +11434,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F283" t="s">
-        <v>520</v>
+        <v>22</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11499,10 +11463,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11528,10 +11492,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11557,10 +11521,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F286" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11586,10 +11550,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11615,10 +11579,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11644,10 +11608,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11673,10 +11637,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11702,10 +11666,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11731,10 +11695,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11760,10 +11724,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11789,10 +11753,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11818,10 +11782,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G295" t="n">
         <v>4</v>
@@ -11847,10 +11811,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11876,10 +11840,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11905,10 +11869,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11934,10 +11898,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11963,10 +11927,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11992,10 +11956,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12021,10 +11985,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12050,10 +12014,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -12079,10 +12043,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12108,10 +12072,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12137,10 +12101,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12166,10 +12130,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12195,10 +12159,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12224,10 +12188,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12253,10 +12217,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12282,10 +12246,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12311,10 +12275,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F312" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -12340,10 +12304,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F313" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12369,10 +12333,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12398,10 +12362,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12427,10 +12391,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12456,10 +12420,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G317" t="n">
         <v>13</v>
@@ -12485,10 +12449,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12514,10 +12478,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12543,10 +12507,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12572,10 +12536,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12601,10 +12565,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12659,10 +12623,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F324" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12688,10 +12652,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F325" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12717,10 +12681,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F326" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12746,10 +12710,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F327" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12775,10 +12739,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F328" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12804,10 +12768,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F329" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G329" t="n">
         <v>3</v>
@@ -12833,10 +12797,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F330" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12862,10 +12826,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F331" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12891,10 +12855,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F332" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12920,10 +12884,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F333" t="s">
-        <v>636</v>
+        <v>453</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -12949,10 +12913,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F334" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12978,10 +12942,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F335" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13007,10 +12971,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F336" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13036,10 +13000,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F337" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13065,10 +13029,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F338" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13094,10 +13058,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F339" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13123,10 +13087,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F340" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13152,10 +13116,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F341" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G341" t="n">
         <v>4</v>
@@ -13181,10 +13145,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F342" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13210,10 +13174,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F343" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13239,10 +13203,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F344" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13268,10 +13232,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F345" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13297,10 +13261,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F346" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13326,10 +13290,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F347" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13355,10 +13319,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F348" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13384,10 +13348,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F349" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13413,10 +13377,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F350" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13442,10 +13406,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F351" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13471,10 +13435,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F352" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13500,10 +13464,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F353" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13529,10 +13493,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F354" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13558,10 +13522,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F355" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13587,10 +13551,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F356" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13616,10 +13580,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F357" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13645,10 +13609,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F358" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13674,10 +13638,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F359" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13703,10 +13667,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F360" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13732,10 +13696,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F361" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13761,10 +13725,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F362" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13790,10 +13754,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F363" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13819,10 +13783,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F364" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13848,10 +13812,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F365" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13877,10 +13841,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F366" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13906,10 +13870,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F367" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13935,10 +13899,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F368" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13964,10 +13928,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F369" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13993,10 +13957,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F370" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G370" t="n">
         <v>44</v>
@@ -14022,10 +13986,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F371" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14051,10 +14015,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F372" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -14080,10 +14044,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F373" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G373" t="n">
         <v>3</v>
@@ -14109,10 +14073,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F374" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14138,10 +14102,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F375" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14167,10 +14131,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F376" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14196,10 +14160,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F377" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G377" t="n">
         <v>4</v>
@@ -14225,10 +14189,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F378" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14254,10 +14218,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F379" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G379" t="n">
         <v>6</v>
@@ -14283,10 +14247,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F380" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14312,10 +14276,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F381" t="s">
-        <v>730</v>
+        <v>78</v>
       </c>
       <c r="G381" t="n">
         <v>4</v>
@@ -14341,10 +14305,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F382" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14370,10 +14334,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F383" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14399,10 +14363,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F384" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14428,10 +14392,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F385" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14457,10 +14421,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F386" t="s">
-        <v>740</v>
+        <v>556</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14486,10 +14450,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F387" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14515,10 +14479,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="F388" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14544,10 +14508,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F389" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14573,10 +14537,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F390" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14602,10 +14566,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="F391" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14631,10 +14595,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="F392" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14660,10 +14624,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F393" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14689,10 +14653,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="F394" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14718,10 +14682,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="F395" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14747,10 +14711,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="F396" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14776,10 +14740,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="F397" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14805,10 +14769,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="F398" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14834,10 +14798,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="F399" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14863,10 +14827,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="F400" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14892,10 +14856,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="F401" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14921,10 +14885,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="F402" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14950,10 +14914,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F403" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14979,10 +14943,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="F404" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15008,10 +14972,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15037,10 +15001,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F406" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15066,10 +15030,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F407" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15095,10 +15059,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15124,10 +15088,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15153,10 +15117,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15182,10 +15146,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="F411" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15211,10 +15175,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="F412" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15240,10 +15204,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="F413" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15269,10 +15233,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="F414" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15298,10 +15262,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="F415" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15327,10 +15291,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="F416" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15356,10 +15320,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="F417" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15385,10 +15349,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="F418" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15414,10 +15378,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="F419" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15443,10 +15407,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="F420" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15472,10 +15436,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="F421" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15501,10 +15465,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="F422" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15530,10 +15494,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="F423" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15559,10 +15523,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="F424" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15588,10 +15552,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="F425" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15617,10 +15581,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="F426" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15646,10 +15610,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="F427" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -15675,10 +15639,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F428" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="G428" t="n">
         <v>3</v>
@@ -15704,10 +15668,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="F429" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="G429" t="n">
         <v>32</v>
@@ -15733,10 +15697,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="F430" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15762,10 +15726,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="F431" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15791,10 +15755,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="F432" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15820,10 +15784,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="F433" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15849,10 +15813,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="F434" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15878,10 +15842,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="F435" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -15907,10 +15871,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="F436" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15936,10 +15900,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="F437" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15965,10 +15929,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="F438" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -15994,10 +15958,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F439" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16023,10 +15987,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="F440" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16052,10 +16016,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="F441" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16081,10 +16045,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="F442" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16110,10 +16074,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="F443" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16139,10 +16103,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="F444" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16168,10 +16132,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="F445" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -16197,10 +16161,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="F446" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16226,10 +16190,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="F447" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16255,10 +16219,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="F448" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16313,10 +16277,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="F450" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16342,10 +16306,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="F451" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16371,10 +16335,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="F452" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16400,10 +16364,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="F453" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16429,10 +16393,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="F454" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16458,10 +16422,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="F455" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16487,10 +16451,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="F456" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16516,10 +16480,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="F457" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16545,10 +16509,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="F458" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16574,10 +16538,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="F459" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16603,10 +16567,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="F460" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16632,10 +16596,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="F461" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16661,10 +16625,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="F462" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16690,10 +16654,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="F463" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16719,10 +16683,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="F464" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16748,10 +16712,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="F465" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16777,10 +16741,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="F466" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16806,10 +16770,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="F467" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16835,10 +16799,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="F468" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16864,10 +16828,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="F469" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16893,10 +16857,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="F470" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16922,10 +16886,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F471" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16951,10 +16915,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="F472" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16980,10 +16944,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="F473" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17038,10 +17002,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="F475" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17067,10 +17031,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="F476" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17096,10 +17060,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="F477" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17125,10 +17089,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="F478" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17154,10 +17118,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="F479" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17183,10 +17147,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="F480" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17212,10 +17176,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="F481" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17241,10 +17205,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="F482" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17270,10 +17234,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="F483" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17299,10 +17263,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="F484" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17328,10 +17292,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="F485" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17357,10 +17321,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="F486" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17386,10 +17350,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="F487" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17415,10 +17379,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="F488" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17444,10 +17408,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="F489" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17473,10 +17437,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F490" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17502,10 +17466,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="F491" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17531,10 +17495,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="F492" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17560,10 +17524,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F493" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17589,10 +17553,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F494" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17618,10 +17582,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F495" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17647,10 +17611,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="F496" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17676,10 +17640,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F497" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="G497" t="n">
         <v>3</v>
@@ -17705,10 +17669,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="F498" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17734,10 +17698,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="F499" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17763,10 +17727,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="F500" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17792,10 +17756,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="F501" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17821,10 +17785,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="F502" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17850,10 +17814,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F503" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="G503" t="n">
         <v>6</v>
@@ -17879,10 +17843,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F504" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>

--- a/xlsx/华盛顿特区_intext.xlsx
+++ b/xlsx/华盛顿特区_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="972">
   <si>
     <t>华盛顿特区</t>
   </si>
@@ -29,7 +29,7 @@
     <t>华盛顿</t>
   </si>
   <si>
-    <t>政策_政策_美國_华盛顿特区</t>
+    <t>体育运动_体育运动_大众媒体_华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
@@ -2916,6 +2916,12 @@
   </si>
   <si>
     <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>國立國會圖書館</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -3273,7 +3279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I504"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3907,7 +3913,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -17856,7 +17862,7 @@
         <v>968</v>
       </c>
       <c r="G503" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H503" t="s">
         <v>4</v>
@@ -17879,18 +17885,47 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F504" t="s">
+        <v>970</v>
+      </c>
+      <c r="G504" t="n">
+        <v>6</v>
+      </c>
+      <c r="H504" t="s">
+        <v>4</v>
+      </c>
+      <c r="I504" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>0</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1</v>
+      </c>
+      <c r="D505" t="n">
+        <v>504</v>
+      </c>
+      <c r="E505" t="s">
         <v>969</v>
       </c>
-      <c r="G504" t="n">
-        <v>1</v>
-      </c>
-      <c r="H504" t="s">
-        <v>4</v>
-      </c>
-      <c r="I504" t="n">
+      <c r="F505" t="s">
+        <v>971</v>
+      </c>
+      <c r="G505" t="n">
+        <v>1</v>
+      </c>
+      <c r="H505" t="s">
+        <v>4</v>
+      </c>
+      <c r="I505" t="n">
         <v>3</v>
       </c>
     </row>
